--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Kagera_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Kagera_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="460" windowWidth="17040" windowHeight="14260" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="8560" yWindow="460" windowWidth="17040" windowHeight="14260" tabRatio="500" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2918,12 +2913,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2939,7 +2934,7 @@
         <v>593960.07324937487</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2947,7 +2942,7 @@
         <v>108533.57773960599</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2955,7 +2950,7 @@
         <v>127612.31261918682</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2963,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2971,7 +2966,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2983,6 +2978,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2994,12 +2994,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3605,6 +3605,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3616,13 +3621,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3658,7 +3663,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3677,7 +3682,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3696,7 +3701,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3715,7 +3720,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3734,7 +3739,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3753,7 +3758,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3772,7 +3777,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3791,113 +3796,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3909,9 +3919,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3925,7 +3935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3941,6 +3951,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3950,12 +3965,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3975,7 +3990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3995,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4015,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4035,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4057,6 +4072,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4068,9 +4088,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4090,7 +4110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4112,6 +4132,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4123,9 +4148,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4139,7 +4164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4155,6 +4180,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4166,12 +4196,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4191,7 +4221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4211,7 +4241,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4219,7 +4249,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4227,7 +4257,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4238,6 +4268,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4247,12 +4282,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4272,7 +4307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4292,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4312,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4332,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4354,6 +4389,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4363,13 +4403,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4389,7 +4429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4411,6 +4451,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4420,12 +4465,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4442,7 +4487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4459,14 +4504,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4475,6 +4520,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4486,13 +4536,13 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4500,7 +4550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4508,7 +4558,7 @@
         <v>110630.887</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4516,7 +4566,7 @@
         <v>112728.155</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4524,7 +4574,7 @@
         <v>115349.73999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4532,7 +4582,7 @@
         <v>117447.008</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4540,7 +4590,7 @@
         <v>119544.276</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4548,7 +4598,7 @@
         <v>122165.86099999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4556,7 +4606,7 @@
         <v>124787.446</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4564,7 +4614,7 @@
         <v>126884.71399999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4572,7 +4622,7 @@
         <v>130030.61599999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4580,7 +4630,7 @@
         <v>132652.201</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4588,7 +4638,7 @@
         <v>135273.78599999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4596,7 +4646,7 @@
         <v>137895.37099999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4604,7 +4654,7 @@
         <v>141041.27299999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4614,6 +4664,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4621,11 +4676,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4633,7 +4688,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4647,7 +4702,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4664,7 +4719,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4681,7 +4736,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4695,7 +4750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4712,7 +4767,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4729,12 +4784,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="36">
-        <v>0</v>
+      <c r="B7" s="31">
+        <v>6.9485117602444607E-2</v>
       </c>
       <c r="C7" s="35">
         <v>0.95</v>
@@ -4746,72 +4801,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4819,6 +4874,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4826,11 +4886,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4840,7 +4900,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4865,7 +4925,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4888,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4913,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4937,7 +4997,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4960,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4983,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5006,65 +5066,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5072,6 +5132,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5083,12 +5148,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5108,7 +5173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5128,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5147,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5167,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5184,14 +5249,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -5201,6 +5266,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5212,12 +5282,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5240,7 +5310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5263,7 +5333,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5283,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5306,7 +5376,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5330,6 +5400,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5341,12 +5416,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5369,7 +5444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5392,7 +5467,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5412,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5438,7 +5513,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5462,6 +5537,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5473,12 +5553,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5501,7 +5581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5524,7 +5604,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5544,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5570,7 +5650,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5594,6 +5674,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5605,9 +5690,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5618,7 +5703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>24</v>
       </c>
@@ -5633,6 +5718,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5644,12 +5734,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5669,7 +5759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5689,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5729,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5749,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5769,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5789,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5809,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5829,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5849,7 +5939,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5869,7 +5959,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5889,7 +5979,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5909,7 +5999,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5929,7 +6019,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5949,7 +6039,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5969,7 +6059,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5989,7 +6079,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6016,6 +6106,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6027,9 +6122,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6052,7 +6147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6080,7 +6175,7 @@
         <v>17.28570153111475</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6105,7 +6200,7 @@
         <v>34.989618236327111</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6125,7 +6220,7 @@
         <v>30.50673151460942</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6145,7 +6240,7 @@
         <v>17.217948717948715</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6168,7 +6263,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6188,7 +6283,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6208,7 +6303,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6228,7 +6323,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6252,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6272,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6292,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6324,6 +6419,11 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6335,9 +6435,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6348,7 +6448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>2.2304651162790699E-2</v>
       </c>
@@ -6361,6 +6461,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6372,9 +6477,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6394,7 +6499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6414,7 +6519,7 @@
         <v>1.8684915254237286</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6438,6 +6543,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6447,9 +6557,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6472,7 +6582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6495,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6515,7 +6625,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6535,7 +6645,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6555,7 +6665,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6578,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6598,7 +6708,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6618,7 +6728,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6638,7 +6748,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6661,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6681,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6701,7 +6811,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6721,7 +6831,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6744,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6764,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6784,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6804,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6827,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6847,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6867,7 +6977,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6889,6 +6999,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6898,9 +7013,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6923,7 +7038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6946,7 +7061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6966,7 +7081,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6986,7 +7101,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -7006,7 +7121,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7029,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7049,7 +7164,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7069,7 +7184,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7089,7 +7204,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7112,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7132,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7152,7 +7267,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7172,7 +7287,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7195,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7215,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7235,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7255,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7278,7 +7393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7298,7 +7413,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7318,7 +7433,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7340,5 +7455,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>